--- a/src/ExcelFiles/WriteExcel.xlsx
+++ b/src/ExcelFiles/WriteExcel.xlsx
@@ -41,31 +41,31 @@
     <t>2024</t>
   </si>
   <si>
-    <t>₹ 55,547</t>
-  </si>
-  <si>
-    <t>₹ 2,68,354</t>
-  </si>
-  <si>
-    <t>₹ 33,750</t>
-  </si>
-  <si>
-    <t>₹ 3,57,651</t>
-  </si>
-  <si>
-    <t>₹ 39,44,453</t>
-  </si>
-  <si>
-    <t>1.39%</t>
+    <t>₹ 42,878</t>
+  </si>
+  <si>
+    <t>₹ 2,09,045</t>
+  </si>
+  <si>
+    <t>₹ 26,250</t>
+  </si>
+  <si>
+    <t>₹ 2,78,173</t>
+  </si>
+  <si>
+    <t>₹ 39,57,122</t>
+  </si>
+  <si>
+    <t>1.07%</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>₹ 80,119</t>
-  </si>
-  <si>
-    <t>₹ 3,51,749</t>
+    <t>₹ 78,931</t>
+  </si>
+  <si>
+    <t>₹ 3,52,938</t>
   </si>
   <si>
     <t>₹ 45,000</t>
@@ -74,292 +74,292 @@
     <t>₹ 4,76,868</t>
   </si>
   <si>
-    <t>₹ 38,64,334</t>
-  </si>
-  <si>
-    <t>3.39%</t>
+    <t>₹ 38,78,191</t>
+  </si>
+  <si>
+    <t>3.05%</t>
   </si>
   <si>
     <t>2026</t>
   </si>
   <si>
-    <t>₹ 87,635</t>
-  </si>
-  <si>
-    <t>₹ 3,44,234</t>
-  </si>
-  <si>
-    <t>₹ 37,76,699</t>
-  </si>
-  <si>
-    <t>5.58%</t>
+    <t>₹ 86,335</t>
+  </si>
+  <si>
+    <t>₹ 3,45,534</t>
+  </si>
+  <si>
+    <t>₹ 37,91,856</t>
+  </si>
+  <si>
+    <t>5.2%</t>
   </si>
   <si>
     <t>2027</t>
   </si>
   <si>
-    <t>₹ 95,856</t>
-  </si>
-  <si>
-    <t>₹ 3,36,013</t>
-  </si>
-  <si>
-    <t>₹ 36,80,843</t>
-  </si>
-  <si>
-    <t>7.98%</t>
+    <t>₹ 94,434</t>
+  </si>
+  <si>
+    <t>₹ 3,37,435</t>
+  </si>
+  <si>
+    <t>₹ 36,97,422</t>
+  </si>
+  <si>
+    <t>7.56%</t>
   </si>
   <si>
     <t>2028</t>
   </si>
   <si>
-    <t>₹ 1,04,847</t>
-  </si>
-  <si>
-    <t>₹ 3,27,021</t>
-  </si>
-  <si>
-    <t>₹ 35,75,996</t>
-  </si>
-  <si>
-    <t>10.6%</t>
+    <t>₹ 1,03,292</t>
+  </si>
+  <si>
+    <t>₹ 3,28,576</t>
+  </si>
+  <si>
+    <t>₹ 35,94,130</t>
+  </si>
+  <si>
+    <t>10.15%</t>
   </si>
   <si>
     <t>2029</t>
   </si>
   <si>
-    <t>₹ 1,14,683</t>
-  </si>
-  <si>
-    <t>₹ 3,17,186</t>
-  </si>
-  <si>
-    <t>₹ 34,61,313</t>
-  </si>
-  <si>
-    <t>13.47%</t>
+    <t>₹ 1,12,982</t>
+  </si>
+  <si>
+    <t>₹ 3,18,887</t>
+  </si>
+  <si>
+    <t>₹ 34,81,148</t>
+  </si>
+  <si>
+    <t>12.97%</t>
   </si>
   <si>
     <t>2030</t>
   </si>
   <si>
-    <t>₹ 1,25,441</t>
-  </si>
-  <si>
-    <t>₹ 3,06,427</t>
-  </si>
-  <si>
-    <t>₹ 33,35,872</t>
-  </si>
-  <si>
-    <t>16.6%</t>
+    <t>₹ 1,23,580</t>
+  </si>
+  <si>
+    <t>₹ 3,08,288</t>
+  </si>
+  <si>
+    <t>₹ 33,57,568</t>
+  </si>
+  <si>
+    <t>16.06%</t>
   </si>
   <si>
     <t>2031</t>
   </si>
   <si>
-    <t>₹ 1,37,208</t>
-  </si>
-  <si>
-    <t>₹ 2,94,660</t>
-  </si>
-  <si>
-    <t>₹ 31,98,664</t>
-  </si>
-  <si>
-    <t>20.03%</t>
+    <t>₹ 1,35,173</t>
+  </si>
+  <si>
+    <t>₹ 2,96,695</t>
+  </si>
+  <si>
+    <t>₹ 32,22,395</t>
+  </si>
+  <si>
+    <t>19.44%</t>
   </si>
   <si>
     <t>2032</t>
   </si>
   <si>
-    <t>₹ 1,50,079</t>
-  </si>
-  <si>
-    <t>₹ 2,81,789</t>
-  </si>
-  <si>
-    <t>₹ 30,48,585</t>
-  </si>
-  <si>
-    <t>23.79%</t>
+    <t>₹ 1,47,853</t>
+  </si>
+  <si>
+    <t>₹ 2,84,015</t>
+  </si>
+  <si>
+    <t>₹ 30,74,542</t>
+  </si>
+  <si>
+    <t>23.14%</t>
   </si>
   <si>
     <t>2033</t>
   </si>
   <si>
-    <t>₹ 1,64,158</t>
-  </si>
-  <si>
-    <t>₹ 2,67,711</t>
-  </si>
-  <si>
-    <t>₹ 28,84,427</t>
-  </si>
-  <si>
-    <t>27.89%</t>
+    <t>₹ 1,61,723</t>
+  </si>
+  <si>
+    <t>₹ 2,70,146</t>
+  </si>
+  <si>
+    <t>₹ 29,12,819</t>
+  </si>
+  <si>
+    <t>27.18%</t>
   </si>
   <si>
     <t>2034</t>
   </si>
   <si>
-    <t>₹ 1,79,557</t>
-  </si>
-  <si>
-    <t>₹ 2,52,312</t>
-  </si>
-  <si>
-    <t>₹ 27,04,870</t>
-  </si>
-  <si>
-    <t>32.38%</t>
+    <t>₹ 1,76,894</t>
+  </si>
+  <si>
+    <t>₹ 2,54,975</t>
+  </si>
+  <si>
+    <t>₹ 27,35,925</t>
+  </si>
+  <si>
+    <t>31.6%</t>
   </si>
   <si>
     <t>2035</t>
   </si>
   <si>
-    <t>₹ 1,96,401</t>
-  </si>
-  <si>
-    <t>₹ 2,35,468</t>
-  </si>
-  <si>
-    <t>₹ 25,08,470</t>
-  </si>
-  <si>
-    <t>37.29%</t>
+    <t>₹ 1,93,487</t>
+  </si>
+  <si>
+    <t>₹ 2,38,381</t>
+  </si>
+  <si>
+    <t>₹ 25,42,438</t>
+  </si>
+  <si>
+    <t>36.44%</t>
   </si>
   <si>
     <t>2036</t>
   </si>
   <si>
-    <t>₹ 2,14,824</t>
-  </si>
-  <si>
-    <t>₹ 2,17,044</t>
-  </si>
-  <si>
-    <t>₹ 22,93,645</t>
-  </si>
-  <si>
-    <t>42.66%</t>
+    <t>₹ 2,11,638</t>
+  </si>
+  <si>
+    <t>₹ 2,20,231</t>
+  </si>
+  <si>
+    <t>₹ 23,30,800</t>
+  </si>
+  <si>
+    <t>41.73%</t>
   </si>
   <si>
     <t>2037</t>
   </si>
   <si>
-    <t>₹ 2,34,976</t>
-  </si>
-  <si>
-    <t>₹ 1,96,892</t>
-  </si>
-  <si>
-    <t>₹ 20,58,669</t>
-  </si>
-  <si>
-    <t>48.53%</t>
+    <t>₹ 2,31,491</t>
+  </si>
+  <si>
+    <t>₹ 2,00,378</t>
+  </si>
+  <si>
+    <t>₹ 20,99,309</t>
+  </si>
+  <si>
+    <t>47.52%</t>
   </si>
   <si>
     <t>2038</t>
   </si>
   <si>
-    <t>₹ 2,57,019</t>
-  </si>
-  <si>
-    <t>₹ 1,74,850</t>
-  </si>
-  <si>
-    <t>₹ 18,01,650</t>
-  </si>
-  <si>
-    <t>54.96%</t>
+    <t>₹ 2,53,206</t>
+  </si>
+  <si>
+    <t>₹ 1,78,662</t>
+  </si>
+  <si>
+    <t>₹ 18,46,103</t>
+  </si>
+  <si>
+    <t>53.85%</t>
   </si>
   <si>
     <t>2039</t>
   </si>
   <si>
-    <t>₹ 2,81,129</t>
-  </si>
-  <si>
-    <t>₹ 1,50,740</t>
-  </si>
-  <si>
-    <t>₹ 15,20,522</t>
-  </si>
-  <si>
-    <t>61.99%</t>
+    <t>₹ 2,76,959</t>
+  </si>
+  <si>
+    <t>₹ 1,54,910</t>
+  </si>
+  <si>
+    <t>₹ 15,69,144</t>
+  </si>
+  <si>
+    <t>60.77%</t>
   </si>
   <si>
     <t>2040</t>
   </si>
   <si>
-    <t>₹ 3,07,501</t>
-  </si>
-  <si>
-    <t>₹ 1,24,368</t>
-  </si>
-  <si>
-    <t>₹ 12,13,021</t>
-  </si>
-  <si>
-    <t>69.67%</t>
+    <t>₹ 3,02,939</t>
+  </si>
+  <si>
+    <t>₹ 1,28,929</t>
+  </si>
+  <si>
+    <t>₹ 12,66,205</t>
+  </si>
+  <si>
+    <t>68.34%</t>
   </si>
   <si>
     <t>2041</t>
   </si>
   <si>
-    <t>₹ 3,36,346</t>
-  </si>
-  <si>
-    <t>₹ 95,522</t>
-  </si>
-  <si>
-    <t>₹ 8,76,675</t>
-  </si>
-  <si>
-    <t>78.08%</t>
+    <t>₹ 3,31,357</t>
+  </si>
+  <si>
+    <t>₹ 1,00,511</t>
+  </si>
+  <si>
+    <t>₹ 9,34,847</t>
+  </si>
+  <si>
+    <t>76.63%</t>
   </si>
   <si>
     <t>2042</t>
   </si>
   <si>
-    <t>₹ 3,67,898</t>
-  </si>
-  <si>
-    <t>₹ 63,971</t>
-  </si>
-  <si>
-    <t>₹ 5,08,777</t>
-  </si>
-  <si>
-    <t>87.28%</t>
+    <t>₹ 3,62,441</t>
+  </si>
+  <si>
+    <t>₹ 69,428</t>
+  </si>
+  <si>
+    <t>₹ 5,72,407</t>
+  </si>
+  <si>
+    <t>85.69%</t>
   </si>
   <si>
     <t>2043</t>
   </si>
   <si>
-    <t>₹ 4,02,409</t>
-  </si>
-  <si>
-    <t>₹ 29,459</t>
-  </si>
-  <si>
-    <t>₹ 1,06,368</t>
-  </si>
-  <si>
-    <t>97.34%</t>
+    <t>₹ 3,96,440</t>
+  </si>
+  <si>
+    <t>₹ 35,428</t>
+  </si>
+  <si>
+    <t>₹ 1,75,966</t>
+  </si>
+  <si>
+    <t>95.6%</t>
   </si>
   <si>
     <t>2044</t>
   </si>
   <si>
-    <t>₹ 1,599</t>
-  </si>
-  <si>
-    <t>₹ 11,250</t>
-  </si>
-  <si>
-    <t>₹ 1,19,217</t>
+    <t>₹ 3,979</t>
+  </si>
+  <si>
+    <t>₹ 18,750</t>
+  </si>
+  <si>
+    <t>₹ 1,98,695</t>
   </si>
   <si>
     <t>₹ 0</t>
